--- a/materials/search_results_history.xlsx
+++ b/materials/search_results_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/LivingMetaAnalysis/materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA8EB75-018E-4318-97A9-8F577A04EC74}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E29B3F9-5014-4EFD-9927-BEEAC5EB9F5C}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2805" windowWidth="14985" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -419,17 +419,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +468,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45688</v>
       </c>
@@ -510,7 +510,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45777</v>
       </c>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <f>D3-E3-F3-G3</f>
@@ -542,7 +542,7 @@
       </c>
       <c r="J3">
         <f>(I3-H3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -552,7 +552,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>12</v>
       </c>
@@ -561,7 +561,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>13</v>
       </c>
@@ -570,7 +570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>14</v>
       </c>
@@ -579,7 +579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>15</v>
       </c>
@@ -588,13 +588,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>16</v>
       </c>
       <c r="M9">
         <f>SUM(J2:J300)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/materials/search_results_history.xlsx
+++ b/materials/search_results_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E29B3F9-5014-4EFD-9927-BEEAC5EB9F5C}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35F1F98-F384-4BDB-9140-838ABEFB67AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2805" windowWidth="14985" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="M1">
         <f>SUM(D2:D30)</f>
-        <v>260</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2">
         <f>SUM(B2:B30)</f>
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -549,16 +549,35 @@
       </c>
       <c r="M3">
         <f>SUM(C2:C30)</f>
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <f>SUM(B4,C4)</f>
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
       <c r="L4" t="s">
         <v>12</v>
       </c>
       <c r="M4">
         <f>SUM(E2:E30)</f>
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -567,7 +586,7 @@
       </c>
       <c r="M5">
         <f>SUM(F2:F30)</f>
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">

--- a/materials/search_results_history.xlsx
+++ b/materials/search_results_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35F1F98-F384-4BDB-9140-838ABEFB67AF}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2472A93A-E76D-4523-ABFE-5EC2CDC769FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40050" yWindow="1380" windowWidth="15465" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -420,16 +420,16 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,10 +465,10 @@
       </c>
       <c r="M1">
         <f>SUM(D2:D30)</f>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45688</v>
       </c>
@@ -507,10 +507,10 @@
       </c>
       <c r="M2">
         <f>SUM(B2:B30)</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45777</v>
       </c>
@@ -549,10 +549,10 @@
       </c>
       <c r="M3">
         <f>SUM(C2:C30)</f>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45901</v>
       </c>
@@ -572,48 +572,93 @@
       <c r="F4">
         <v>17</v>
       </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J5" si="0">(I4-H4)</f>
+        <v>1</v>
+      </c>
       <c r="L4" t="s">
         <v>12</v>
       </c>
       <c r="M4">
         <f>SUM(E2:E30)</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I4:I5" si="1">D5-E5-F5-G5</f>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
       <c r="M5">
         <f>SUM(F2:F30)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L6" t="s">
         <v>14</v>
       </c>
       <c r="M6">
         <f>SUM(G2:G30)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L8" t="s">
         <v>15</v>
       </c>
       <c r="M8">
         <f>SUM(I2:I30)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L9" t="s">
         <v>16</v>
       </c>
       <c r="M9">
         <f>SUM(J2:J300)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/materials/search_results_history.xlsx
+++ b/materials/search_results_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2472A93A-E76D-4523-ABFE-5EC2CDC769FD}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85A117BE-3467-429E-B212-E1B936348889}"/>
   <bookViews>
-    <workbookView xWindow="40050" yWindow="1380" windowWidth="15465" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="34770" yWindow="1860" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="M1">
         <f>SUM(D2:D30)</f>
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2">
         <f>SUM(B2:B30)</f>
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I4:I5" si="1">D5-E5-F5-G5</f>
+        <f t="shared" ref="I5" si="1">D5-E5-F5-G5</f>
         <v>2</v>
       </c>
       <c r="J5">
@@ -631,10 +631,28 @@
       </c>
       <c r="M5">
         <f>SUM(F2:F30)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
       <c r="L6" t="s">
         <v>14</v>
       </c>

--- a/materials/search_results_history.xlsx
+++ b/materials/search_results_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85A117BE-3467-429E-B212-E1B936348889}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61120601-B69C-4F65-B866-3C26ED30C651}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="34770" yWindow="1860" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -420,12 +420,14 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,7 +467,7 @@
       </c>
       <c r="M1">
         <f>SUM(D2:D30)</f>
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -507,7 +509,7 @@
       </c>
       <c r="M2">
         <f>SUM(B2:B30)</f>
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -549,7 +551,7 @@
       </c>
       <c r="M3">
         <f>SUM(C2:C30)</f>
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -590,7 +592,7 @@
       </c>
       <c r="M4">
         <f>SUM(E2:E30)</f>
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -631,7 +633,7 @@
       </c>
       <c r="M5">
         <f>SUM(F2:F30)</f>
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -653,12 +655,56 @@
       <c r="F6">
         <v>2</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
       <c r="L6" t="s">
         <v>14</v>
       </c>
       <c r="M6">
         <f>SUM(G2:G30)</f>
-        <v>62</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">

--- a/materials/search_results_history.xlsx
+++ b/materials/search_results_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61120601-B69C-4F65-B866-3C26ED30C651}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC0A5533-A6CC-43BB-A707-A07BDE94D69D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -417,21 +417,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,11 +466,11 @@
         <v>9</v>
       </c>
       <c r="M1">
-        <f>SUM(D2:D30)</f>
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <f>SUM(D2:D31)</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45688</v>
       </c>
@@ -508,11 +508,11 @@
         <v>10</v>
       </c>
       <c r="M2">
-        <f>SUM(B2:B30)</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <f>SUM(B2:B31)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45777</v>
       </c>
@@ -550,11 +550,11 @@
         <v>11</v>
       </c>
       <c r="M3">
-        <f>SUM(C2:C30)</f>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <f>SUM(C2:C31)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45901</v>
       </c>
@@ -591,11 +591,11 @@
         <v>12</v>
       </c>
       <c r="M4">
-        <f>SUM(E2:E30)</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <f>SUM(E2:E31)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45962</v>
       </c>
@@ -632,11 +632,11 @@
         <v>13</v>
       </c>
       <c r="M5">
-        <f>SUM(F2:F30)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <f>SUM(F2:F31)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45992</v>
       </c>
@@ -671,11 +671,11 @@
         <v>14</v>
       </c>
       <c r="M6">
-        <f>SUM(G2:G30)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <f>SUM(G2:G31)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>46023</v>
       </c>
@@ -707,22 +707,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="L8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
         <v>15</v>
       </c>
-      <c r="M8">
-        <f>SUM(I2:I30)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="L9" t="s">
+      <c r="M9">
+        <f>SUM(I2:I31)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
         <v>16</v>
       </c>
-      <c r="M9">
-        <f>SUM(J2:J300)</f>
-        <v>16</v>
+      <c r="M10">
+        <f>SUM(J2:J301)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
